--- a/data/trans_orig/dukeGLOBAL-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/dukeGLOBAL-Dificultad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>45.26388963890769</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43.07837379282672</v>
+        <v>43.07837379282671</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>45.39853401378282</v>
@@ -693,7 +693,7 @@
         <v>45.30544806417488</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>43.25332127150693</v>
+        <v>43.25332127150695</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>44.82594602438506</v>
+        <v>44.89781315827518</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>46.75283058843659</v>
+        <v>46.82932731936222</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44.81680539213809</v>
+        <v>44.79695508120043</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>41.95505707718857</v>
+        <v>41.99700116015408</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>44.76208634228154</v>
+        <v>44.74451494296176</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>45.61563212492038</v>
+        <v>45.63815733646368</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>44.89349447807709</v>
+        <v>44.88976480900648</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>42.57893264561194</v>
+        <v>42.57216355996484</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>45.00852796556187</v>
+        <v>44.97142847146783</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46.31103887768757</v>
+        <v>46.38073317200013</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44.98625439946531</v>
+        <v>44.98457655843532</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>42.58461778033359</v>
+        <v>42.5916457905986</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>46.3553972818414</v>
+        <v>46.39047168684285</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>47.77932236132652</v>
+        <v>47.81152237115846</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45.76060895130931</v>
+        <v>45.7082238919632</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44.09203431346377</v>
+        <v>44.21272768138891</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>46.05390113101149</v>
+        <v>46.03282119353229</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>46.69997652618127</v>
+        <v>46.70334891596171</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>45.80162048602229</v>
+        <v>45.77685475793898</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>44.1637744149177</v>
+        <v>44.14500761185898</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>46.00940931100146</v>
+        <v>45.94938807604468</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>47.08265134702265</v>
+        <v>47.12717869292406</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45.64950930720757</v>
+        <v>45.61506070913882</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>43.86427741875233</v>
+        <v>43.89846755166104</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>46.30801827494822</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>46.52746088859281</v>
+        <v>46.52746088859282</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>47.22540250615364</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>47.40656877531325</v>
+        <v>47.40905433684384</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>48.09403002661417</v>
+        <v>48.12678615028842</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46.38300707195306</v>
+        <v>46.38858059809837</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>46.07885085723775</v>
+        <v>46.05818582128257</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>45.98827445221223</v>
+        <v>46.02023632017863</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>46.76974474538056</v>
+        <v>46.81998524366415</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>45.84940614538861</v>
+        <v>45.86626353330185</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>46.05744524899222</v>
+        <v>46.10009571821416</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>46.87815993827489</v>
+        <v>46.86046750127852</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>47.56388947809777</v>
+        <v>47.5323900636752</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>46.22916133373924</v>
+        <v>46.28333045859522</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>46.2575972421493</v>
+        <v>46.21814672079902</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>48.35712688011902</v>
+        <v>48.3479506569993</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>49.02484949861627</v>
+        <v>49.01530258471503</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>47.26982762354867</v>
+        <v>47.244371794459</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>47.21945236054313</v>
+        <v>47.18667989333426</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>47.07137112275799</v>
+        <v>47.06072803344693</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>47.72436759255093</v>
+        <v>47.75376949484035</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>46.75144407903762</v>
+        <v>46.74197507140173</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>46.92208381406866</v>
+        <v>46.95245223046357</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>47.54797441372462</v>
+        <v>47.55915306503482</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>48.22301895406943</v>
+        <v>48.20884404485895</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46.85378904666303</v>
+        <v>46.8651382853926</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>46.95592545171314</v>
+        <v>46.91493045964906</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>47.56983419704613</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>49.42655707110307</v>
+        <v>49.42655707110308</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>47.69762692335825</v>
+        <v>47.72287848630894</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>48.4724208011982</v>
+        <v>48.46622178794596</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>47.38433060734184</v>
+        <v>47.44333136939491</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49.24731619956385</v>
+        <v>49.27703114837792</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>46.44039773917616</v>
+        <v>46.43198459886963</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>48.27846780401715</v>
+        <v>48.27855926106544</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>46.72845961992763</v>
+        <v>46.80659124043018</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>48.78082705998612</v>
+        <v>48.79262152646815</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>47.26739251488981</v>
+        <v>47.25721800059932</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48.49730301455179</v>
+        <v>48.48448742952294</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47.26509939426511</v>
+        <v>47.25794301179074</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>49.11908172756071</v>
+        <v>49.15185373557458</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>48.5964586636463</v>
+        <v>48.60497577509921</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>49.38166905125138</v>
+        <v>49.3489171193578</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>48.30361997692837</v>
+        <v>48.28102133376535</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50.07703739411813</v>
+        <v>50.11437582418647</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>47.4414568507669</v>
+        <v>47.44995926856748</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>49.05109245894339</v>
+        <v>49.07962921676144</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>47.69781078617688</v>
+        <v>47.75709268510735</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>49.55663730610339</v>
+        <v>49.52580494132004</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>47.90509757673207</v>
+        <v>47.90385374845341</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>49.07476350619229</v>
+        <v>49.10138648665335</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47.90844773917753</v>
+        <v>47.89646665751567</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>49.71952657468427</v>
+        <v>49.71247011573782</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>48.60184694845923</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>50.04521842737274</v>
+        <v>50.04521842737272</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>48.48746020658692</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>47.4652879316448</v>
+        <v>47.46162834179378</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>48.83269174490184</v>
+        <v>48.89709651426313</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48.51901780438322</v>
+        <v>48.46138659605475</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49.58424610899154</v>
+        <v>49.5484518939549</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>48.07884045939523</v>
+        <v>48.05947493581458</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>49.01255351907238</v>
+        <v>49.02603734879795</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>47.92036756509646</v>
+        <v>48.00314498491228</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>49.64575184755149</v>
+        <v>49.58707216689998</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>48.00116470387525</v>
+        <v>47.97109526042082</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49.09281422844519</v>
+        <v>49.12737524135753</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>48.42827369475428</v>
+        <v>48.39138362224816</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>49.73556535944752</v>
+        <v>49.75012602804166</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>48.87722992555965</v>
+        <v>48.85519504690708</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>50.10414773143686</v>
+        <v>50.15090040299952</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>49.57175667630055</v>
+        <v>49.59250262982226</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>50.47335387405144</v>
+        <v>50.44118620714967</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>49.51989726760377</v>
+        <v>49.53937098016188</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>50.24547757903201</v>
+        <v>50.2682793581742</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>49.23181976877397</v>
+        <v>49.25139141327834</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>50.46404984110985</v>
+        <v>50.43271263886206</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>48.96391055766973</v>
+        <v>48.97784306838299</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>49.98336990829406</v>
+        <v>49.99221466167531</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>49.22634269338891</v>
+        <v>49.23046825796924</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>50.31633193136698</v>
+        <v>50.34305172434441</v>
       </c>
     </row>
     <row r="16">
@@ -1213,10 +1213,10 @@
         <v>46.89968092468639</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47.99821745218834</v>
+        <v>47.99821745218833</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>46.57912303065513</v>
+        <v>46.57912303065515</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>47.59132839062944</v>
@@ -1225,7 +1225,7 @@
         <v>46.49026306431765</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>47.6160221598705</v>
+        <v>47.61602215987051</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>47.09940848908451</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>47.33671013242674</v>
+        <v>47.32501379511674</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>48.14708108242857</v>
+        <v>48.14607252224111</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46.65536756144742</v>
+        <v>46.65040937857854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47.70553753372197</v>
+        <v>47.68836764104128</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>46.26825062670667</v>
+        <v>46.27962059944089</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>47.34226158120754</v>
+        <v>47.34099974302332</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>46.23606790247722</v>
+        <v>46.24151060947064</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>47.38086360615772</v>
+        <v>47.36293470187991</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>46.89323092312202</v>
+        <v>46.89155161627264</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47.81114883286299</v>
+        <v>47.81290259630295</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46.51058618789705</v>
+        <v>46.52069278388696</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>47.62261288489982</v>
+        <v>47.59679632137394</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>47.89986656363754</v>
+        <v>47.88224342373006</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>48.64876725076407</v>
+        <v>48.66019266483872</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47.15606170492489</v>
+        <v>47.15063035450584</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>48.30388992069805</v>
+        <v>48.30765598038078</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>46.88014110516106</v>
+        <v>46.87758842489539</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>47.84930896930609</v>
+        <v>47.85722157591101</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>46.73334046532246</v>
+        <v>46.7224619025206</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>47.83084058382656</v>
+        <v>47.85655895610245</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>47.30323421473616</v>
+        <v>47.31256875114087</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48.17415384544904</v>
+        <v>48.17221767829603</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>46.86290677926009</v>
+        <v>46.86518004729063</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>47.99111725939476</v>
+        <v>47.99123793158942</v>
       </c>
     </row>
     <row r="19">
